--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cgn-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cgn-F11r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cgn</t>
+  </si>
+  <si>
+    <t>F11r</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
@@ -83,15 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cgn</t>
-  </si>
-  <si>
-    <t>F11r</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02557233333333333</v>
+        <v>0.04683366666666666</v>
       </c>
       <c r="H2">
-        <v>0.07671699999999999</v>
+        <v>0.140501</v>
       </c>
       <c r="I2">
-        <v>0.4537668498287661</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5351651877894972</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.90614433333333</v>
+        <v>27.636609</v>
       </c>
       <c r="N2">
-        <v>92.718433</v>
+        <v>82.90982700000001</v>
       </c>
       <c r="O2">
-        <v>0.713998684801744</v>
+        <v>0.5611737787305786</v>
       </c>
       <c r="P2">
-        <v>0.719302559836422</v>
+        <v>0.5623609389937425</v>
       </c>
       <c r="Q2">
-        <v>0.7903422249401111</v>
+        <v>1.294323733703</v>
       </c>
       <c r="R2">
-        <v>7.113080024461</v>
+        <v>11.648913603327</v>
       </c>
       <c r="S2">
-        <v>0.3239889339843695</v>
+        <v>0.5611737787305786</v>
       </c>
       <c r="T2">
-        <v>0.3849456895123248</v>
+        <v>0.5623609389937425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02557233333333333</v>
+        <v>0.04683366666666666</v>
       </c>
       <c r="H3">
-        <v>0.07671699999999999</v>
+        <v>0.140501</v>
       </c>
       <c r="I3">
-        <v>0.4537668498287661</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5351651877894972</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.081622</v>
+        <v>11.07680033333333</v>
       </c>
       <c r="N3">
-        <v>21.244866</v>
+        <v>33.230401</v>
       </c>
       <c r="O3">
-        <v>0.1636007629981116</v>
+        <v>0.224919413930298</v>
       </c>
       <c r="P3">
-        <v>0.1648160565567557</v>
+        <v>0.2253952298018738</v>
       </c>
       <c r="Q3">
-        <v>0.1810935983246667</v>
+        <v>0.5187671745445555</v>
       </c>
       <c r="R3">
-        <v>1.629842384922</v>
+        <v>4.668904570901</v>
       </c>
       <c r="S3">
-        <v>0.07423660285523564</v>
+        <v>0.224919413930298</v>
       </c>
       <c r="T3">
-        <v>0.08820381585792057</v>
+        <v>0.2253952298018738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02557233333333333</v>
+        <v>0.04683366666666666</v>
       </c>
       <c r="H4">
-        <v>0.07671699999999999</v>
+        <v>0.140501</v>
       </c>
       <c r="I4">
-        <v>0.4537668498287661</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5351651877894972</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.9575255</v>
+        <v>0.311891</v>
       </c>
       <c r="N4">
-        <v>1.915051</v>
+        <v>0.6237819999999999</v>
       </c>
       <c r="O4">
-        <v>0.02212090710152961</v>
+        <v>0.006333087066581101</v>
       </c>
       <c r="P4">
-        <v>0.0148568201807002</v>
+        <v>0.00423098978661956</v>
       </c>
       <c r="Q4">
-        <v>0.02448616126116667</v>
+        <v>0.01460699913033333</v>
       </c>
       <c r="R4">
-        <v>0.146916967567</v>
+        <v>0.08764199478199998</v>
       </c>
       <c r="S4">
-        <v>0.01003773433081587</v>
+        <v>0.006333087066581101</v>
       </c>
       <c r="T4">
-        <v>0.007950852961959217</v>
+        <v>0.00423098978661956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02557233333333333</v>
+        <v>0.04683366666666666</v>
       </c>
       <c r="H5">
-        <v>0.07671699999999999</v>
+        <v>0.140501</v>
       </c>
       <c r="I5">
-        <v>0.4537668498287661</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5351651877894972</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,524 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.340704333333334</v>
+        <v>10.222562</v>
       </c>
       <c r="N5">
-        <v>13.022113</v>
+        <v>30.667686</v>
       </c>
       <c r="O5">
-        <v>0.1002796450986148</v>
+        <v>0.2075737202725422</v>
       </c>
       <c r="P5">
-        <v>0.1010245634261221</v>
+        <v>0.208012841417764</v>
       </c>
       <c r="Q5">
-        <v>0.1110019381134445</v>
+        <v>0.4787600611873334</v>
       </c>
       <c r="R5">
-        <v>0.999017443021</v>
+        <v>4.308840550686</v>
       </c>
       <c r="S5">
-        <v>0.0455035786583451</v>
+        <v>0.2075737202725422</v>
       </c>
       <c r="T5">
-        <v>0.05406482945729258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.005068333333333334</v>
-      </c>
-      <c r="H6">
-        <v>0.015205</v>
-      </c>
-      <c r="I6">
-        <v>0.08993475959235096</v>
-      </c>
-      <c r="J6">
-        <v>0.1060675818963112</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>30.90614433333333</v>
-      </c>
-      <c r="N6">
-        <v>92.718433</v>
-      </c>
-      <c r="O6">
-        <v>0.713998684801744</v>
-      </c>
-      <c r="P6">
-        <v>0.719302559836422</v>
-      </c>
-      <c r="Q6">
-        <v>0.1566426415294445</v>
-      </c>
-      <c r="R6">
-        <v>1.409783773765</v>
-      </c>
-      <c r="S6">
-        <v>0.06421330006689961</v>
-      </c>
-      <c r="T6">
-        <v>0.07629468317367598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.005068333333333334</v>
-      </c>
-      <c r="H7">
-        <v>0.015205</v>
-      </c>
-      <c r="I7">
-        <v>0.08993475959235096</v>
-      </c>
-      <c r="J7">
-        <v>0.1060675818963112</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.081622</v>
-      </c>
-      <c r="N7">
-        <v>21.244866</v>
-      </c>
-      <c r="O7">
-        <v>0.1636007629981116</v>
-      </c>
-      <c r="P7">
-        <v>0.1648160565567557</v>
-      </c>
-      <c r="Q7">
-        <v>0.03589202083666667</v>
-      </c>
-      <c r="R7">
-        <v>0.3230281875300001</v>
-      </c>
-      <c r="S7">
-        <v>0.01471339528936035</v>
-      </c>
-      <c r="T7">
-        <v>0.01748164057666075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.005068333333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.015205</v>
-      </c>
-      <c r="I8">
-        <v>0.08993475959235096</v>
-      </c>
-      <c r="J8">
-        <v>0.1060675818963112</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.9575255</v>
-      </c>
-      <c r="N8">
-        <v>1.915051</v>
-      </c>
-      <c r="O8">
-        <v>0.02212090710152961</v>
-      </c>
-      <c r="P8">
-        <v>0.0148568201807002</v>
-      </c>
-      <c r="Q8">
-        <v>0.004853058409166667</v>
-      </c>
-      <c r="R8">
-        <v>0.029118350455</v>
-      </c>
-      <c r="S8">
-        <v>0.001989438462140794</v>
-      </c>
-      <c r="T8">
-        <v>0.001575826991235188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.005068333333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.015205</v>
-      </c>
-      <c r="I9">
-        <v>0.08993475959235096</v>
-      </c>
-      <c r="J9">
-        <v>0.1060675818963112</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.340704333333334</v>
-      </c>
-      <c r="N9">
-        <v>13.022113</v>
-      </c>
-      <c r="O9">
-        <v>0.1002796450986148</v>
-      </c>
-      <c r="P9">
-        <v>0.1010245634261221</v>
-      </c>
-      <c r="Q9">
-        <v>0.02200013646277778</v>
-      </c>
-      <c r="R9">
-        <v>0.198001228165</v>
-      </c>
-      <c r="S9">
-        <v>0.009018625773950196</v>
-      </c>
-      <c r="T9">
-        <v>0.01071543115473929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.025715</v>
-      </c>
-      <c r="H10">
-        <v>0.05143</v>
-      </c>
-      <c r="I10">
-        <v>0.4562983905788829</v>
-      </c>
-      <c r="J10">
-        <v>0.3587672303141917</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>30.90614433333333</v>
-      </c>
-      <c r="N10">
-        <v>92.718433</v>
-      </c>
-      <c r="O10">
-        <v>0.713998684801744</v>
-      </c>
-      <c r="P10">
-        <v>0.719302559836422</v>
-      </c>
-      <c r="Q10">
-        <v>0.7947515015316666</v>
-      </c>
-      <c r="R10">
-        <v>4.76850900919</v>
-      </c>
-      <c r="S10">
-        <v>0.3257964507504749</v>
-      </c>
-      <c r="T10">
-        <v>0.2580621871504212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.025715</v>
-      </c>
-      <c r="H11">
-        <v>0.05143</v>
-      </c>
-      <c r="I11">
-        <v>0.4562983905788829</v>
-      </c>
-      <c r="J11">
-        <v>0.3587672303141917</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>7.081622</v>
-      </c>
-      <c r="N11">
-        <v>21.244866</v>
-      </c>
-      <c r="O11">
-        <v>0.1636007629981116</v>
-      </c>
-      <c r="P11">
-        <v>0.1648160565567557</v>
-      </c>
-      <c r="Q11">
-        <v>0.18210390973</v>
-      </c>
-      <c r="R11">
-        <v>1.09262345838</v>
-      </c>
-      <c r="S11">
-        <v>0.07465076485351557</v>
-      </c>
-      <c r="T11">
-        <v>0.05913060012217443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.025715</v>
-      </c>
-      <c r="H12">
-        <v>0.05143</v>
-      </c>
-      <c r="I12">
-        <v>0.4562983905788829</v>
-      </c>
-      <c r="J12">
-        <v>0.3587672303141917</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.9575255</v>
-      </c>
-      <c r="N12">
-        <v>1.915051</v>
-      </c>
-      <c r="O12">
-        <v>0.02212090710152961</v>
-      </c>
-      <c r="P12">
-        <v>0.0148568201807002</v>
-      </c>
-      <c r="Q12">
-        <v>0.0246227682325</v>
-      </c>
-      <c r="R12">
-        <v>0.09849107292999999</v>
-      </c>
-      <c r="S12">
-        <v>0.01009373430857294</v>
-      </c>
-      <c r="T12">
-        <v>0.005330140227505801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.025715</v>
-      </c>
-      <c r="H13">
-        <v>0.05143</v>
-      </c>
-      <c r="I13">
-        <v>0.4562983905788829</v>
-      </c>
-      <c r="J13">
-        <v>0.3587672303141917</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.340704333333334</v>
-      </c>
-      <c r="N13">
-        <v>13.022113</v>
-      </c>
-      <c r="O13">
-        <v>0.1002796450986148</v>
-      </c>
-      <c r="P13">
-        <v>0.1010245634261221</v>
-      </c>
-      <c r="Q13">
-        <v>0.1116212119316667</v>
-      </c>
-      <c r="R13">
-        <v>0.66972727159</v>
-      </c>
-      <c r="S13">
-        <v>0.04575744066631949</v>
-      </c>
-      <c r="T13">
-        <v>0.0362443028140902</v>
+        <v>0.208012841417764</v>
       </c>
     </row>
   </sheetData>
